--- a/Chen/PremierLeagueManagers.xlsx
+++ b/Chen/PremierLeagueManagers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/zcemhtb_ucl_ac_uk/Documents/Year 3 (2024-25)/COMP0036 - Machine Learning and Neural Computing/Coursework/Data Exploration/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IS_CW\SVM_Collab\Chen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="154" documentId="8_{317FCA4F-8BAD-4670-8F58-382A7992CE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C79A636-0EB7-4D2D-81C8-8AF3821EEAE4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C895316-574F-4C42-B1CF-1780A7D92B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11442" yWindow="0" windowWidth="11676" windowHeight="13758" xr2:uid="{E9C157C2-DCD3-4929-8F58-5DD942016674}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{E9C157C2-DCD3-4929-8F58-5DD942016674}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1350,16 +1350,16 @@
       <selection activeCell="D537" sqref="D537"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.47265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7890625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5234375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.05078125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.47265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45520</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45520</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45520</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45520</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45520</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45520</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45520</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45520</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45520</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>45520</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>45520</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>45520</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45520</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45520</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45520</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>45520</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>45520</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>45520</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>45520</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>45520</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>45520</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>45520</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>45149</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>45149</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>45149</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>45149</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>45149</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>45149</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>45149</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>45149</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>45149</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>45149</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>45149</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>45149</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>45149</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>45149</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>45149</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>45149</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>45149</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>45149</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>45149</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>45149</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>45149</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>45149</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45149</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45149</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>44779</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>44779</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>44779</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>44779</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>44779</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>44779</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>44779</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>44779</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>44779</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>44779</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>44779</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>44779</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>44779</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>44779</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>44779</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>44779</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>44779</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>44779</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>44779</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>44779</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>44779</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>44779</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>44779</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>44779</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>44779</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>44779</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>44779</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>44779</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>44779</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>44779</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>44779</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>44779</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>44779</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>44779</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>44779</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>44779</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>44779</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>44779</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>44779</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>44421</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>44421</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>44421</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>44421</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>44421</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>44421</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>44421</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>44421</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>44421</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>44421</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>44421</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>44421</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>44421</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>44421</v>
       </c>
@@ -3059,7 +3059,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>44421</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>44421</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>44421</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>44421</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>44421</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>44421</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>44421</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>44421</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>44421</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>44421</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>44421</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>44421</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>44421</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>44421</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>44421</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>44421</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>44421</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>44421</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>44086</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>44086</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>44086</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>44086</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>44086</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>44086</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>44086</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>44086</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>44086</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>44086</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>44086</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>44086</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>44086</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>44086</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>44086</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>44086</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>44086</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>44086</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>44086</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>44086</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>44086</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>44086</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>44086</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>44086</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>43686</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>43686</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>43686</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>43686</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>43686</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>43686</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>43686</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>43686</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>43686</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>43686</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>43686</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>43686</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>43686</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>43686</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>43686</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>43686</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>43686</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>43686</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>43686</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>43686</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>43686</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>43686</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>43686</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>43686</v>
       </c>
@@ -4181,7 +4181,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>43686</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>43686</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>43686</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>43686</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>43686</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>43322</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>43322</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>43322</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>43322</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>43322</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>43322</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>43322</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>43322</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>43322</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>43322</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>43322</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>43322</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>43322</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>43322</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>43322</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>43322</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>43322</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>43322</v>
       </c>
@@ -4572,7 +4572,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>43322</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>43322</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>43322</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>43322</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>43322</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>43322</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>43322</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>43322</v>
       </c>
@@ -4708,7 +4708,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>43322</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>43322</v>
       </c>
@@ -4742,7 +4742,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>43322</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>42958</v>
       </c>
@@ -4776,7 +4776,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>42958</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>42958</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>42958</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>42958</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>42958</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>42958</v>
       </c>
@@ -4878,7 +4878,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>42958</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>42958</v>
       </c>
@@ -4912,7 +4912,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>42958</v>
       </c>
@@ -4929,7 +4929,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>42958</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>42958</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>42958</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>42958</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>42958</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>42958</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>42958</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>42958</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>42958</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>42958</v>
       </c>
@@ -5099,7 +5099,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>42958</v>
       </c>
@@ -5116,7 +5116,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>42958</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>42958</v>
       </c>
@@ -5150,7 +5150,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>42958</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>42958</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>42958</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>42958</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>42958</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>42958</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>42958</v>
       </c>
@@ -5269,7 +5269,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>42958</v>
       </c>
@@ -5286,7 +5286,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>42958</v>
       </c>
@@ -5303,7 +5303,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>42958</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>42595</v>
       </c>
@@ -5337,7 +5337,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>42595</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>42595</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>42595</v>
       </c>
@@ -5388,7 +5388,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>42595</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>42595</v>
       </c>
@@ -5422,7 +5422,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>42595</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>42595</v>
       </c>
@@ -5456,7 +5456,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>42595</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>42595</v>
       </c>
@@ -5490,7 +5490,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>42595</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>42595</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>42595</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>42595</v>
       </c>
@@ -5558,7 +5558,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>42595</v>
       </c>
@@ -5575,7 +5575,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>42595</v>
       </c>
@@ -5592,7 +5592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>42595</v>
       </c>
@@ -5609,7 +5609,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>42595</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>42595</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>42595</v>
       </c>
@@ -5660,7 +5660,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>42595</v>
       </c>
@@ -5677,7 +5677,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>42595</v>
       </c>
@@ -5694,7 +5694,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>42595</v>
       </c>
@@ -5711,7 +5711,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>42595</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>42595</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>42595</v>
       </c>
@@ -5762,7 +5762,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>42595</v>
       </c>
@@ -5779,7 +5779,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>42224</v>
       </c>
@@ -5796,7 +5796,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>42224</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>42224</v>
       </c>
@@ -5830,7 +5830,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>42224</v>
       </c>
@@ -5847,7 +5847,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>42224</v>
       </c>
@@ -5864,7 +5864,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>42224</v>
       </c>
@@ -5881,7 +5881,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>42224</v>
       </c>
@@ -5898,7 +5898,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>42224</v>
       </c>
@@ -5915,7 +5915,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>42224</v>
       </c>
@@ -5932,7 +5932,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>42224</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>42224</v>
       </c>
@@ -5966,7 +5966,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>42224</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>42224</v>
       </c>
@@ -6000,7 +6000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>42224</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>42224</v>
       </c>
@@ -6034,7 +6034,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>42224</v>
       </c>
@@ -6051,7 +6051,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>42224</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>42224</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>42224</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>42224</v>
       </c>
@@ -6119,7 +6119,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>42224</v>
       </c>
@@ -6136,7 +6136,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>42224</v>
       </c>
@@ -6153,7 +6153,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>42224</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>42224</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>42224</v>
       </c>
@@ -6204,7 +6204,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>42224</v>
       </c>
@@ -6221,7 +6221,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>42224</v>
       </c>
@@ -6238,7 +6238,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>42224</v>
       </c>
@@ -6255,7 +6255,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>42224</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>42224</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>42224</v>
       </c>
@@ -6306,7 +6306,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>42224</v>
       </c>
@@ -6323,7 +6323,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>41867</v>
       </c>
@@ -6340,7 +6340,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>41867</v>
       </c>
@@ -6357,7 +6357,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>41867</v>
       </c>
@@ -6374,7 +6374,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>41867</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>41867</v>
       </c>
@@ -6408,7 +6408,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>41867</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>41867</v>
       </c>
@@ -6442,7 +6442,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>41867</v>
       </c>
@@ -6459,7 +6459,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>41867</v>
       </c>
@@ -6476,7 +6476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>41867</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>41867</v>
       </c>
@@ -6510,7 +6510,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>41867</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>41867</v>
       </c>
@@ -6544,7 +6544,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>41867</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>41867</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>41867</v>
       </c>
@@ -6595,7 +6595,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>41867</v>
       </c>
@@ -6612,7 +6612,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>41867</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>41867</v>
       </c>
@@ -6646,7 +6646,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>41867</v>
       </c>
@@ -6663,7 +6663,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>41867</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>41867</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>41867</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>41867</v>
       </c>
@@ -6731,7 +6731,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>41867</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>41867</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>41867</v>
       </c>
@@ -6782,7 +6782,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>41867</v>
       </c>
@@ -6799,7 +6799,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>41503</v>
       </c>
@@ -6816,7 +6816,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>41503</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>41503</v>
       </c>
@@ -6850,7 +6850,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>41503</v>
       </c>
@@ -6867,7 +6867,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>41503</v>
       </c>
@@ -6884,7 +6884,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>41503</v>
       </c>
@@ -6901,7 +6901,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>41503</v>
       </c>
@@ -6918,7 +6918,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>41503</v>
       </c>
@@ -6935,7 +6935,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>41503</v>
       </c>
@@ -6952,7 +6952,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>41503</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>41503</v>
       </c>
@@ -6986,7 +6986,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>41503</v>
       </c>
@@ -7003,7 +7003,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>41503</v>
       </c>
@@ -7020,7 +7020,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>41503</v>
       </c>
@@ -7037,7 +7037,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>41503</v>
       </c>
@@ -7054,7 +7054,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>41503</v>
       </c>
@@ -7071,7 +7071,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>41503</v>
       </c>
@@ -7088,7 +7088,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>41503</v>
       </c>
@@ -7105,7 +7105,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>41503</v>
       </c>
@@ -7122,7 +7122,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>41503</v>
       </c>
@@ -7139,7 +7139,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>41503</v>
       </c>
@@ -7156,7 +7156,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>41503</v>
       </c>
@@ -7173,7 +7173,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>41503</v>
       </c>
@@ -7190,7 +7190,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>41503</v>
       </c>
@@ -7207,7 +7207,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>41503</v>
       </c>
@@ -7224,7 +7224,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>41503</v>
       </c>
@@ -7241,7 +7241,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>41503</v>
       </c>
@@ -7258,7 +7258,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>41503</v>
       </c>
@@ -7275,7 +7275,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>41503</v>
       </c>
@@ -7292,7 +7292,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>41503</v>
       </c>
@@ -7309,7 +7309,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>41503</v>
       </c>
@@ -7326,7 +7326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>41503</v>
       </c>
@@ -7343,7 +7343,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>41503</v>
       </c>
@@ -7360,7 +7360,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>41139</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>41139</v>
       </c>
@@ -7394,7 +7394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>41139</v>
       </c>
@@ -7411,7 +7411,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>41139</v>
       </c>
@@ -7428,7 +7428,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>41139</v>
       </c>
@@ -7445,7 +7445,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>41139</v>
       </c>
@@ -7462,7 +7462,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>41139</v>
       </c>
@@ -7479,7 +7479,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>41139</v>
       </c>
@@ -7496,7 +7496,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>41139</v>
       </c>
@@ -7513,7 +7513,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>41139</v>
       </c>
@@ -7530,7 +7530,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>41139</v>
       </c>
@@ -7547,7 +7547,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>41139</v>
       </c>
@@ -7564,7 +7564,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>41139</v>
       </c>
@@ -7581,7 +7581,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>41139</v>
       </c>
@@ -7598,7 +7598,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>41139</v>
       </c>
@@ -7615,7 +7615,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>41139</v>
       </c>
@@ -7632,7 +7632,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>41139</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>41139</v>
       </c>
@@ -7666,7 +7666,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>41139</v>
       </c>
@@ -7683,7 +7683,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>41139</v>
       </c>
@@ -7700,7 +7700,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>41139</v>
       </c>
@@ -7717,7 +7717,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>41139</v>
       </c>
@@ -7734,7 +7734,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>41139</v>
       </c>
@@ -7751,7 +7751,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>41139</v>
       </c>
@@ -7768,7 +7768,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>41139</v>
       </c>
@@ -7785,7 +7785,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>41139</v>
       </c>
@@ -7802,7 +7802,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>41139</v>
       </c>
@@ -7819,7 +7819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>40768</v>
       </c>
@@ -7836,7 +7836,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>40768</v>
       </c>
@@ -7853,7 +7853,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>40768</v>
       </c>
@@ -7870,7 +7870,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>40768</v>
       </c>
@@ -7887,7 +7887,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>40768</v>
       </c>
@@ -7904,7 +7904,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>40768</v>
       </c>
@@ -7921,7 +7921,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>40768</v>
       </c>
@@ -7938,7 +7938,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>40768</v>
       </c>
@@ -7955,7 +7955,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>40768</v>
       </c>
@@ -7972,7 +7972,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>40768</v>
       </c>
@@ -7989,7 +7989,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>40768</v>
       </c>
@@ -8006,7 +8006,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>40768</v>
       </c>
@@ -8023,7 +8023,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>40768</v>
       </c>
@@ -8040,7 +8040,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>40768</v>
       </c>
@@ -8057,7 +8057,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>40768</v>
       </c>
@@ -8074,7 +8074,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>40768</v>
       </c>
@@ -8091,7 +8091,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>40768</v>
       </c>
@@ -8108,7 +8108,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>40768</v>
       </c>
@@ -8125,7 +8125,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>40768</v>
       </c>
@@ -8142,7 +8142,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>40768</v>
       </c>
@@ -8159,7 +8159,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>40768</v>
       </c>
@@ -8176,7 +8176,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>40768</v>
       </c>
@@ -8193,7 +8193,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>40768</v>
       </c>
@@ -8210,7 +8210,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>40768</v>
       </c>
@@ -8227,7 +8227,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>40768</v>
       </c>
@@ -8244,7 +8244,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>40404</v>
       </c>
@@ -8261,7 +8261,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>40404</v>
       </c>
@@ -8278,7 +8278,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>40404</v>
       </c>
@@ -8295,7 +8295,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>40404</v>
       </c>
@@ -8312,7 +8312,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>40404</v>
       </c>
@@ -8329,7 +8329,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>40404</v>
       </c>
@@ -8346,7 +8346,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>40404</v>
       </c>
@@ -8363,7 +8363,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>40404</v>
       </c>
@@ -8380,7 +8380,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>40404</v>
       </c>
@@ -8397,7 +8397,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>40404</v>
       </c>
@@ -8414,7 +8414,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>40404</v>
       </c>
@@ -8431,7 +8431,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>40404</v>
       </c>
@@ -8448,7 +8448,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>40404</v>
       </c>
@@ -8465,7 +8465,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>40404</v>
       </c>
@@ -8482,7 +8482,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>40404</v>
       </c>
@@ -8499,7 +8499,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>40404</v>
       </c>
@@ -8516,7 +8516,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>40404</v>
       </c>
@@ -8533,7 +8533,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>40404</v>
       </c>
@@ -8550,7 +8550,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>40404</v>
       </c>
@@ -8567,7 +8567,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>40404</v>
       </c>
@@ -8584,7 +8584,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>40404</v>
       </c>
@@ -8601,7 +8601,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>40404</v>
       </c>
@@ -8618,7 +8618,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>40404</v>
       </c>
@@ -8635,7 +8635,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>40404</v>
       </c>
@@ -8652,7 +8652,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>40404</v>
       </c>
@@ -8669,7 +8669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>40404</v>
       </c>
@@ -8686,7 +8686,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>40040</v>
       </c>
@@ -8703,7 +8703,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>40040</v>
       </c>
@@ -8720,7 +8720,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>40040</v>
       </c>
@@ -8737,7 +8737,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>40040</v>
       </c>
@@ -8754,7 +8754,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>40040</v>
       </c>
@@ -8771,7 +8771,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>40040</v>
       </c>
@@ -8788,7 +8788,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>40040</v>
       </c>
@@ -8805,7 +8805,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>40040</v>
       </c>
@@ -8822,7 +8822,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>40040</v>
       </c>
@@ -8839,7 +8839,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>40040</v>
       </c>
@@ -8856,7 +8856,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>40040</v>
       </c>
@@ -8873,7 +8873,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>40040</v>
       </c>
@@ -8890,7 +8890,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>40040</v>
       </c>
@@ -8907,7 +8907,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>40040</v>
       </c>
@@ -8924,7 +8924,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>40040</v>
       </c>
@@ -8941,7 +8941,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>40040</v>
       </c>
@@ -8958,7 +8958,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>40040</v>
       </c>
@@ -8975,7 +8975,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>40040</v>
       </c>
@@ -8992,7 +8992,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>40040</v>
       </c>
@@ -9009,7 +9009,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>40040</v>
       </c>
@@ -9026,7 +9026,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <v>40040</v>
       </c>
@@ -9043,7 +9043,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>40040</v>
       </c>
@@ -9060,7 +9060,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <v>40040</v>
       </c>
@@ -9077,7 +9077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>40040</v>
       </c>
@@ -9094,7 +9094,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>39676</v>
       </c>
@@ -9111,7 +9111,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>39676</v>
       </c>
@@ -9128,7 +9128,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>39676</v>
       </c>
@@ -9145,7 +9145,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>39676</v>
       </c>
@@ -9162,7 +9162,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <v>39676</v>
       </c>
@@ -9179,7 +9179,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>39676</v>
       </c>
@@ -9196,7 +9196,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <v>39676</v>
       </c>
@@ -9213,7 +9213,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>39676</v>
       </c>
@@ -9230,7 +9230,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <v>39676</v>
       </c>
@@ -9247,7 +9247,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>39676</v>
       </c>
@@ -9264,7 +9264,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>39676</v>
       </c>
@@ -9281,7 +9281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>39676</v>
       </c>
@@ -9298,7 +9298,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>39676</v>
       </c>
@@ -9315,7 +9315,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>39676</v>
       </c>
@@ -9332,7 +9332,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>39676</v>
       </c>
@@ -9349,7 +9349,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>39676</v>
       </c>
@@ -9366,7 +9366,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>39676</v>
       </c>
@@ -9383,7 +9383,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <v>39676</v>
       </c>
@@ -9400,7 +9400,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>39676</v>
       </c>
@@ -9417,7 +9417,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>39676</v>
       </c>
@@ -9434,7 +9434,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>39676</v>
       </c>
@@ -9451,7 +9451,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>39676</v>
       </c>
@@ -9468,7 +9468,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>39676</v>
       </c>
@@ -9485,7 +9485,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <v>39676</v>
       </c>
@@ -9502,7 +9502,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <v>39676</v>
       </c>
@@ -9519,7 +9519,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <v>39676</v>
       </c>
@@ -9536,7 +9536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <v>39676</v>
       </c>
@@ -9553,7 +9553,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>39676</v>
       </c>
@@ -9570,7 +9570,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <v>39676</v>
       </c>
@@ -9587,7 +9587,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>39676</v>
       </c>
@@ -9604,7 +9604,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>39676</v>
       </c>
@@ -9621,7 +9621,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>39305</v>
       </c>
@@ -9638,7 +9638,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <v>39305</v>
       </c>
@@ -9655,7 +9655,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>39305</v>
       </c>
@@ -9672,7 +9672,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <v>39305</v>
       </c>
@@ -9689,7 +9689,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>39305</v>
       </c>
@@ -9706,7 +9706,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>39305</v>
       </c>
@@ -9723,7 +9723,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <v>39305</v>
       </c>
@@ -9740,7 +9740,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <v>39305</v>
       </c>
@@ -9757,7 +9757,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <v>39305</v>
       </c>
@@ -9774,7 +9774,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <v>39305</v>
       </c>
@@ -9791,7 +9791,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
         <v>39305</v>
       </c>
@@ -9808,7 +9808,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <v>39305</v>
       </c>
@@ -9825,7 +9825,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <v>39305</v>
       </c>
@@ -9842,7 +9842,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A500" s="1">
         <v>39305</v>
       </c>
@@ -9859,7 +9859,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
         <v>39305</v>
       </c>
@@ -9876,7 +9876,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A502" s="1">
         <v>39305</v>
       </c>
@@ -9893,7 +9893,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A503" s="1">
         <v>39305</v>
       </c>
@@ -9910,7 +9910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A504" s="1">
         <v>39305</v>
       </c>
@@ -9927,7 +9927,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A505" s="1">
         <v>39305</v>
       </c>
@@ -9944,7 +9944,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A506" s="1">
         <v>39305</v>
       </c>
@@ -9961,7 +9961,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A507" s="1">
         <v>39305</v>
       </c>
@@ -9978,7 +9978,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A508" s="1">
         <v>39305</v>
       </c>
@@ -9995,7 +9995,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A509" s="1">
         <v>39305</v>
       </c>
@@ -10012,7 +10012,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A510" s="1">
         <v>39305</v>
       </c>
@@ -10029,7 +10029,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A511" s="1">
         <v>39305</v>
       </c>
@@ -10046,7 +10046,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A512" s="1">
         <v>39305</v>
       </c>
@@ -10063,7 +10063,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A513" s="1">
         <v>39305</v>
       </c>
@@ -10080,7 +10080,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A514" s="1">
         <v>39305</v>
       </c>
@@ -10097,7 +10097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A515" s="1">
         <v>39305</v>
       </c>
@@ -10114,7 +10114,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A516" s="1">
         <v>39305</v>
       </c>
@@ -10131,7 +10131,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A517" s="1">
         <v>39305</v>
       </c>
@@ -10148,7 +10148,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A518" s="1">
         <v>39305</v>
       </c>
@@ -10165,7 +10165,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A519" s="1">
         <v>39305</v>
       </c>
@@ -10182,7 +10182,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A520" s="1">
         <v>39305</v>
       </c>
@@ -10199,7 +10199,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A521" s="1">
         <v>38948</v>
       </c>
@@ -10216,7 +10216,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A522" s="1">
         <v>38948</v>
       </c>
@@ -10233,7 +10233,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A523" s="1">
         <v>38948</v>
       </c>
@@ -10250,7 +10250,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A524" s="1">
         <v>38948</v>
       </c>
@@ -10267,7 +10267,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A525" s="1">
         <v>38948</v>
       </c>
@@ -10284,7 +10284,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A526" s="1">
         <v>38948</v>
       </c>
@@ -10301,7 +10301,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A527" s="1">
         <v>38948</v>
       </c>
@@ -10318,7 +10318,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A528" s="1">
         <v>38948</v>
       </c>
@@ -10335,7 +10335,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A529" s="1">
         <v>38948</v>
       </c>
@@ -10352,7 +10352,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A530" s="1">
         <v>38948</v>
       </c>
@@ -10369,7 +10369,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A531" s="1">
         <v>38948</v>
       </c>
@@ -10386,7 +10386,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A532" s="1">
         <v>38948</v>
       </c>
@@ -10403,7 +10403,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A533" s="1">
         <v>38948</v>
       </c>
@@ -10420,7 +10420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A534" s="1">
         <v>38948</v>
       </c>
@@ -10437,7 +10437,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A535" s="1">
         <v>38948</v>
       </c>
@@ -10454,7 +10454,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A536" s="1">
         <v>38948</v>
       </c>
@@ -10471,7 +10471,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A537" s="1">
         <v>38948</v>
       </c>
@@ -10488,7 +10488,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A538" s="1">
         <v>38948</v>
       </c>
@@ -10505,7 +10505,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A539" s="1">
         <v>38948</v>
       </c>
@@ -10522,7 +10522,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A540" s="1">
         <v>38948</v>
       </c>
@@ -10539,7 +10539,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A541" s="1">
         <v>38948</v>
       </c>
@@ -10556,7 +10556,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A542" s="1">
         <v>38948</v>
       </c>
@@ -10573,7 +10573,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A543" s="1">
         <v>38948</v>
       </c>
@@ -10590,7 +10590,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A544" s="1">
         <v>38948</v>
       </c>
@@ -10607,7 +10607,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A545" s="1">
         <v>38948</v>
       </c>
@@ -10624,7 +10624,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A546" s="1">
         <v>38577</v>
       </c>
@@ -10641,7 +10641,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A547" s="1">
         <v>38577</v>
       </c>
@@ -10658,7 +10658,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A548" s="1">
         <v>38577</v>
       </c>
@@ -10675,7 +10675,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A549" s="1">
         <v>38577</v>
       </c>
@@ -10692,7 +10692,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A550" s="1">
         <v>38577</v>
       </c>
@@ -10709,7 +10709,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A551" s="1">
         <v>38577</v>
       </c>
@@ -10726,7 +10726,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A552" s="1">
         <v>38577</v>
       </c>
@@ -10743,7 +10743,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A553" s="1">
         <v>38577</v>
       </c>
@@ -10760,7 +10760,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A554" s="1">
         <v>38577</v>
       </c>
@@ -10777,7 +10777,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A555" s="1">
         <v>38577</v>
       </c>
@@ -10794,7 +10794,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A556" s="1">
         <v>38577</v>
       </c>
@@ -10811,7 +10811,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A557" s="1">
         <v>38577</v>
       </c>
@@ -10828,7 +10828,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A558" s="1">
         <v>38577</v>
       </c>
@@ -10845,7 +10845,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A559" s="1">
         <v>38577</v>
       </c>
@@ -10862,7 +10862,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A560" s="1">
         <v>38577</v>
       </c>
@@ -10879,7 +10879,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A561" s="1">
         <v>38577</v>
       </c>
@@ -10896,7 +10896,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A562" s="1">
         <v>38577</v>
       </c>
@@ -10913,7 +10913,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A563" s="1">
         <v>38577</v>
       </c>
@@ -10930,7 +10930,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A564" s="1">
         <v>38577</v>
       </c>
@@ -10947,7 +10947,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A565" s="1">
         <v>38577</v>
       </c>
@@ -10964,7 +10964,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A566" s="1">
         <v>38577</v>
       </c>
@@ -10981,7 +10981,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A567" s="1">
         <v>38577</v>
       </c>
@@ -10998,7 +10998,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A568" s="1">
         <v>38577</v>
       </c>
@@ -11015,7 +11015,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A569" s="1">
         <v>38577</v>
       </c>
@@ -11032,7 +11032,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A570" s="1">
         <v>38213</v>
       </c>
@@ -11049,7 +11049,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A571" s="1">
         <v>38213</v>
       </c>
@@ -11066,7 +11066,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A572" s="1">
         <v>38213</v>
       </c>
@@ -11083,7 +11083,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A573" s="1">
         <v>38213</v>
       </c>
@@ -11100,7 +11100,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A574" s="1">
         <v>38213</v>
       </c>
@@ -11117,7 +11117,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A575" s="1">
         <v>38213</v>
       </c>
@@ -11134,7 +11134,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A576" s="1">
         <v>38213</v>
       </c>
@@ -11151,7 +11151,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A577" s="1">
         <v>38213</v>
       </c>
@@ -11168,7 +11168,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A578" s="1">
         <v>38213</v>
       </c>
@@ -11185,7 +11185,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A579" s="1">
         <v>38213</v>
       </c>
@@ -11202,7 +11202,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A580" s="1">
         <v>38213</v>
       </c>
@@ -11219,7 +11219,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A581" s="1">
         <v>38213</v>
       </c>
@@ -11236,7 +11236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A582" s="1">
         <v>38213</v>
       </c>
@@ -11253,7 +11253,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A583" s="1">
         <v>38213</v>
       </c>
@@ -11270,7 +11270,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A584" s="1">
         <v>38213</v>
       </c>
@@ -11287,7 +11287,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A585" s="1">
         <v>38213</v>
       </c>
@@ -11304,7 +11304,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A586" s="1">
         <v>38213</v>
       </c>
@@ -11321,7 +11321,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A587" s="1">
         <v>38213</v>
       </c>
@@ -11338,7 +11338,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A588" s="1">
         <v>38213</v>
       </c>
@@ -11355,7 +11355,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A589" s="1">
         <v>38213</v>
       </c>
@@ -11372,7 +11372,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A590" s="1">
         <v>38213</v>
       </c>
@@ -11389,7 +11389,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A591" s="1">
         <v>38213</v>
       </c>
@@ -11406,7 +11406,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A592" s="1">
         <v>38213</v>
       </c>
@@ -11423,7 +11423,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A593" s="1">
         <v>38213</v>
       </c>
@@ -11440,7 +11440,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A594" s="1">
         <v>38213</v>
       </c>
@@ -11457,7 +11457,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A595" s="1">
         <v>38213</v>
       </c>
@@ -11474,7 +11474,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A596" s="1">
         <v>38213</v>
       </c>
@@ -11491,7 +11491,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A597" s="1">
         <v>38213</v>
       </c>
@@ -11508,7 +11508,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A598" s="1">
         <v>38213</v>
       </c>
@@ -11525,7 +11525,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A599" s="1">
         <v>38213</v>
       </c>
@@ -11542,7 +11542,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A600" s="1">
         <v>37849</v>
       </c>
@@ -11559,7 +11559,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A601" s="1">
         <v>37849</v>
       </c>
@@ -11576,7 +11576,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A602" s="1">
         <v>37849</v>
       </c>
@@ -11593,7 +11593,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A603" s="1">
         <v>37849</v>
       </c>
@@ -11610,7 +11610,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A604" s="1">
         <v>37849</v>
       </c>
@@ -11627,7 +11627,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A605" s="1">
         <v>37849</v>
       </c>
@@ -11644,7 +11644,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A606" s="1">
         <v>37849</v>
       </c>
@@ -11661,7 +11661,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A607" s="1">
         <v>37849</v>
       </c>
@@ -11678,7 +11678,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A608" s="1">
         <v>37849</v>
       </c>
@@ -11695,7 +11695,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A609" s="1">
         <v>37849</v>
       </c>
@@ -11712,7 +11712,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A610" s="1">
         <v>37849</v>
       </c>
@@ -11729,7 +11729,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A611" s="1">
         <v>37849</v>
       </c>
@@ -11746,7 +11746,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A612" s="1">
         <v>37849</v>
       </c>
@@ -11763,7 +11763,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A613" s="1">
         <v>37849</v>
       </c>
@@ -11780,7 +11780,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A614" s="1">
         <v>37849</v>
       </c>
@@ -11797,7 +11797,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A615" s="1">
         <v>37849</v>
       </c>
@@ -11814,7 +11814,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A616" s="1">
         <v>37849</v>
       </c>
@@ -11831,7 +11831,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A617" s="1">
         <v>37849</v>
       </c>
@@ -11848,7 +11848,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A618" s="1">
         <v>37849</v>
       </c>
@@ -11865,7 +11865,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A619" s="1">
         <v>37849</v>
       </c>
@@ -11882,7 +11882,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A620" s="1">
         <v>37849</v>
       </c>
@@ -11899,7 +11899,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A621" s="1">
         <v>37849</v>
       </c>
@@ -11916,7 +11916,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A622" s="1">
         <v>37849</v>
       </c>
@@ -11933,7 +11933,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A623" s="1">
         <v>37849</v>
       </c>
@@ -11950,7 +11950,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A624" s="1">
         <v>37485</v>
       </c>
@@ -11967,7 +11967,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A625" s="1">
         <v>37485</v>
       </c>
@@ -11984,7 +11984,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A626" s="1">
         <v>37485</v>
       </c>
@@ -12001,7 +12001,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A627" s="1">
         <v>37485</v>
       </c>
@@ -12018,7 +12018,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A628" s="1">
         <v>37485</v>
       </c>
@@ -12035,7 +12035,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A629" s="1">
         <v>37485</v>
       </c>
@@ -12052,7 +12052,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A630" s="1">
         <v>37485</v>
       </c>
@@ -12069,7 +12069,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A631" s="1">
         <v>37485</v>
       </c>
@@ -12086,7 +12086,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A632" s="1">
         <v>37485</v>
       </c>
@@ -12103,7 +12103,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A633" s="1">
         <v>37485</v>
       </c>
@@ -12120,7 +12120,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A634" s="1">
         <v>37485</v>
       </c>
@@ -12137,7 +12137,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A635" s="1">
         <v>37485</v>
       </c>
@@ -12154,7 +12154,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A636" s="1">
         <v>37485</v>
       </c>
@@ -12171,7 +12171,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A637" s="1">
         <v>37485</v>
       </c>
@@ -12188,7 +12188,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A638" s="1">
         <v>37485</v>
       </c>
@@ -12205,7 +12205,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A639" s="1">
         <v>37485</v>
       </c>
@@ -12222,7 +12222,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A640" s="1">
         <v>37485</v>
       </c>
@@ -12239,7 +12239,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A641" s="1">
         <v>37485</v>
       </c>
@@ -12256,7 +12256,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A642" s="1">
         <v>37485</v>
       </c>
@@ -12273,7 +12273,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A643" s="1">
         <v>37485</v>
       </c>
@@ -12290,7 +12290,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A644" s="1">
         <v>37485</v>
       </c>
@@ -12307,7 +12307,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="645" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A645" s="1">
         <v>37485</v>
       </c>
@@ -12324,7 +12324,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A646" s="1">
         <v>37485</v>
       </c>
@@ -12341,7 +12341,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="647" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A647" s="1">
         <v>37485</v>
       </c>
@@ -12358,7 +12358,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="648" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A648" s="1">
         <v>37121</v>
       </c>
@@ -12375,7 +12375,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="649" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A649" s="1">
         <v>37121</v>
       </c>
@@ -12392,7 +12392,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A650" s="1">
         <v>37121</v>
       </c>
@@ -12409,7 +12409,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="651" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A651" s="1">
         <v>37121</v>
       </c>
@@ -12426,7 +12426,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="652" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="652" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A652" s="1">
         <v>37121</v>
       </c>
@@ -12443,7 +12443,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="653" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A653" s="1">
         <v>37121</v>
       </c>
@@ -12460,7 +12460,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="654" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A654" s="1">
         <v>37121</v>
       </c>
@@ -12477,7 +12477,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A655" s="1">
         <v>37121</v>
       </c>
@@ -12494,7 +12494,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="656" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A656" s="1">
         <v>37121</v>
       </c>
@@ -12511,7 +12511,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A657" s="1">
         <v>37121</v>
       </c>
@@ -12528,7 +12528,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A658" s="1">
         <v>37121</v>
       </c>
@@ -12545,7 +12545,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A659" s="1">
         <v>37121</v>
       </c>
@@ -12562,7 +12562,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="660" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A660" s="1">
         <v>37121</v>
       </c>
@@ -12579,7 +12579,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A661" s="1">
         <v>37121</v>
       </c>
@@ -12596,7 +12596,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A662" s="1">
         <v>37121</v>
       </c>
@@ -12613,7 +12613,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A663" s="1">
         <v>37121</v>
       </c>
@@ -12630,7 +12630,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A664" s="1">
         <v>37121</v>
       </c>
@@ -12647,7 +12647,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A665" s="1">
         <v>37121</v>
       </c>
@@ -12664,7 +12664,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A666" s="1">
         <v>37121</v>
       </c>
@@ -12681,7 +12681,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A667" s="1">
         <v>37121</v>
       </c>
@@ -12698,7 +12698,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A668" s="1">
         <v>37121</v>
       </c>
@@ -12715,7 +12715,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A669" s="1">
         <v>37121</v>
       </c>
@@ -12732,7 +12732,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A670" s="1">
         <v>37121</v>
       </c>
@@ -12749,7 +12749,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A671" s="1">
         <v>37121</v>
       </c>
@@ -12766,7 +12766,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A672" s="1">
         <v>37121</v>
       </c>
@@ -12783,7 +12783,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A673" s="1">
         <v>37121</v>
       </c>
@@ -12800,7 +12800,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A674" s="1">
         <v>37121</v>
       </c>
@@ -12817,7 +12817,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A675" s="1">
         <v>36757</v>
       </c>
@@ -12834,7 +12834,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A676" s="1">
         <v>36757</v>
       </c>
@@ -12851,7 +12851,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A677" s="1">
         <v>36757</v>
       </c>
@@ -12868,7 +12868,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A678" s="1">
         <v>36757</v>
       </c>
@@ -12885,7 +12885,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A679" s="1">
         <v>36757</v>
       </c>
@@ -12902,7 +12902,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A680" s="1">
         <v>36757</v>
       </c>
@@ -12919,7 +12919,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="681" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A681" s="1">
         <v>36757</v>
       </c>
@@ -12936,7 +12936,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="682" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A682" s="1">
         <v>36757</v>
       </c>
@@ -12953,7 +12953,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="683" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A683" s="1">
         <v>36757</v>
       </c>
@@ -12970,7 +12970,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A684" s="1">
         <v>36757</v>
       </c>
@@ -12987,7 +12987,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="685" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A685" s="1">
         <v>36757</v>
       </c>
@@ -13004,7 +13004,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="686" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A686" s="1">
         <v>36757</v>
       </c>
@@ -13021,7 +13021,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="687" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="687" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A687" s="1">
         <v>36757</v>
       </c>
@@ -13038,7 +13038,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="688" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A688" s="1">
         <v>36757</v>
       </c>
@@ -13055,7 +13055,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="689" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="689" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A689" s="1">
         <v>36757</v>
       </c>
@@ -13072,7 +13072,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="690" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="690" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A690" s="1">
         <v>36757</v>
       </c>
@@ -13089,7 +13089,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="691" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="691" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A691" s="1">
         <v>36757</v>
       </c>
@@ -13106,7 +13106,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="692" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="692" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A692" s="1">
         <v>36757</v>
       </c>
@@ -13123,7 +13123,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="693" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="693" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A693" s="1">
         <v>36757</v>
       </c>
@@ -13140,7 +13140,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="694" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="694" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A694" s="1">
         <v>36757</v>
       </c>
@@ -13157,7 +13157,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="695" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="695" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A695" s="1">
         <v>36757</v>
       </c>
@@ -13174,7 +13174,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="696" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="696" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A696" s="1">
         <v>36757</v>
       </c>
@@ -13191,7 +13191,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="697" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="697" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A697" s="1">
         <v>36757</v>
       </c>
@@ -13208,7 +13208,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="698" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="698" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A698" s="1">
         <v>36757</v>
       </c>
@@ -13225,7 +13225,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="699" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="699" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A699" s="1">
         <v>36757</v>
       </c>
@@ -13242,7 +13242,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="700" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="700" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A700" s="1">
         <v>36757</v>
       </c>
@@ -13259,7 +13259,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="701" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="701" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A701" s="1">
         <v>36757</v>
       </c>
@@ -13276,7 +13276,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="702" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="702" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A702" s="1">
         <v>36757</v>
       </c>
